--- a/result/TrailATRf/summary_NIKKEI_M15_2017-2024_0.xlsx
+++ b/result/TrailATRf/summary_NIKKEI_M15_2017-2024_0.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="22">
   <si>
     <t>count</t>
   </si>
@@ -437,7 +437,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U8"/>
+  <dimension ref="A1:U14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -572,10 +572,10 @@
     </row>
     <row r="3" spans="1:21">
       <c r="A3" s="1">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B3">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C3" t="s">
         <v>20</v>
@@ -590,57 +590,57 @@
         <v>2024</v>
       </c>
       <c r="G3">
-        <v>65</v>
+        <v>10</v>
       </c>
       <c r="H3">
-        <v>3.2</v>
+        <v>1</v>
       </c>
       <c r="I3">
         <v>100</v>
       </c>
       <c r="J3">
-        <v>250</v>
+        <v>400</v>
       </c>
       <c r="K3">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="L3">
-        <v>-17215</v>
+        <v>2099</v>
       </c>
       <c r="M3">
-        <v>-13449</v>
+        <v>-6591</v>
       </c>
       <c r="N3">
-        <v>1317</v>
+        <v>1309</v>
       </c>
       <c r="O3">
-        <v>-3766</v>
+        <v>8690</v>
       </c>
       <c r="P3">
-        <v>-676</v>
+        <v>-691</v>
       </c>
       <c r="Q3">
-        <v>1788</v>
+        <v>2015</v>
       </c>
       <c r="R3">
-        <v>-2.859529233105543</v>
+        <v>6.638655462184874</v>
       </c>
       <c r="S3">
-        <v>274.6620412649904</v>
+        <v>303.766058416695</v>
       </c>
       <c r="T3">
-        <v>-50</v>
+        <v>-34</v>
       </c>
       <c r="U3">
-        <v>0.3682611996962794</v>
+        <v>0.3842627960275019</v>
       </c>
     </row>
     <row r="4" spans="1:21">
       <c r="A4" s="1">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="C4" t="s">
         <v>20</v>
@@ -655,57 +655,57 @@
         <v>2024</v>
       </c>
       <c r="G4">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="H4">
-        <v>1.4</v>
+        <v>2.600000000000001</v>
       </c>
       <c r="I4">
-        <v>60</v>
+        <v>5</v>
       </c>
       <c r="J4">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>-21235</v>
+        <v>-9531</v>
       </c>
       <c r="M4">
-        <v>-11180</v>
+        <v>-10029</v>
       </c>
       <c r="N4">
-        <v>12303</v>
+        <v>6345</v>
       </c>
       <c r="O4">
-        <v>-10055</v>
+        <v>498</v>
       </c>
       <c r="P4">
-        <v>-589</v>
+        <v>-1051</v>
       </c>
       <c r="Q4">
-        <v>1990</v>
+        <v>1175</v>
       </c>
       <c r="R4">
-        <v>-0.8172803381289117</v>
+        <v>0.07848699763593381</v>
       </c>
       <c r="S4">
-        <v>102.6305182018198</v>
+        <v>153.8910142705003</v>
       </c>
       <c r="T4">
-        <v>-15</v>
+        <v>-14</v>
       </c>
       <c r="U4">
-        <v>0.2198650735592945</v>
+        <v>0.4162332545311269</v>
       </c>
     </row>
     <row r="5" spans="1:21">
       <c r="A5" s="1">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="B5">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="C5" t="s">
         <v>20</v>
@@ -720,57 +720,57 @@
         <v>2024</v>
       </c>
       <c r="G5">
-        <v>75</v>
+        <v>10</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>3.600000000000001</v>
       </c>
       <c r="I5">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="J5">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="L5">
-        <v>-22297</v>
+        <v>-11886</v>
       </c>
       <c r="M5">
-        <v>-12883</v>
+        <v>-7137</v>
       </c>
       <c r="N5">
-        <v>11529</v>
+        <v>2001</v>
       </c>
       <c r="O5">
-        <v>-9414</v>
+        <v>-4749</v>
       </c>
       <c r="P5">
-        <v>-561</v>
+        <v>-1190</v>
       </c>
       <c r="Q5">
-        <v>1990</v>
+        <v>1745</v>
       </c>
       <c r="R5">
-        <v>-0.8165495706479313</v>
+        <v>-2.373313343328336</v>
       </c>
       <c r="S5">
-        <v>104.491414993282</v>
+        <v>236.2786432770255</v>
       </c>
       <c r="T5">
-        <v>-15</v>
+        <v>-40</v>
       </c>
       <c r="U5">
-        <v>0.2184057593893659</v>
+        <v>0.3883058470764618</v>
       </c>
     </row>
     <row r="6" spans="1:21">
       <c r="A6" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B6">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C6" t="s">
         <v>20</v>
@@ -788,54 +788,54 @@
         <v>65</v>
       </c>
       <c r="H6">
-        <v>2.2</v>
+        <v>3.2</v>
       </c>
       <c r="I6">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="J6">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="L6">
-        <v>-26148</v>
+        <v>-17215</v>
       </c>
       <c r="M6">
-        <v>-13768</v>
+        <v>-13449</v>
       </c>
       <c r="N6">
-        <v>4422</v>
+        <v>1317</v>
       </c>
       <c r="O6">
-        <v>-12380</v>
+        <v>-3766</v>
       </c>
       <c r="P6">
-        <v>-1075</v>
+        <v>-676</v>
       </c>
       <c r="Q6">
-        <v>1733</v>
+        <v>1788</v>
       </c>
       <c r="R6">
-        <v>-2.799638172772501</v>
+        <v>-2.859529233105543</v>
       </c>
       <c r="S6">
-        <v>172.4383177361088</v>
+        <v>274.6620412649904</v>
       </c>
       <c r="T6">
-        <v>-29.5</v>
+        <v>-50</v>
       </c>
       <c r="U6">
-        <v>0.3403437358661239</v>
+        <v>0.3682611996962794</v>
       </c>
     </row>
     <row r="7" spans="1:21">
       <c r="A7" s="1">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C7" t="s">
         <v>20</v>
@@ -850,57 +850,57 @@
         <v>2024</v>
       </c>
       <c r="G7">
-        <v>60</v>
+        <v>5</v>
       </c>
       <c r="H7">
-        <v>1.6</v>
+        <v>2.2</v>
       </c>
       <c r="I7">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="J7">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L7">
-        <v>-27247</v>
+        <v>-19215</v>
       </c>
       <c r="M7">
-        <v>-14616</v>
+        <v>-12133</v>
       </c>
       <c r="N7">
-        <v>2623</v>
+        <v>2442</v>
       </c>
       <c r="O7">
-        <v>-12631</v>
+        <v>-7082</v>
       </c>
       <c r="P7">
-        <v>-748</v>
+        <v>-668</v>
       </c>
       <c r="Q7">
-        <v>1984</v>
+        <v>2108</v>
       </c>
       <c r="R7">
-        <v>-4.81547845977888</v>
+        <v>-2.9000819000819</v>
       </c>
       <c r="S7">
-        <v>198.0108503860242</v>
+        <v>223.3789026755155</v>
       </c>
       <c r="T7">
-        <v>-29</v>
+        <v>-33</v>
       </c>
       <c r="U7">
-        <v>0.3175752954632101</v>
+        <v>0.3476658476658477</v>
       </c>
     </row>
     <row r="8" spans="1:21">
       <c r="A8" s="1">
+        <v>0</v>
+      </c>
+      <c r="B8">
         <v>3</v>
-      </c>
-      <c r="B8">
-        <v>7</v>
       </c>
       <c r="C8" t="s">
         <v>20</v>
@@ -915,49 +915,439 @@
         <v>2024</v>
       </c>
       <c r="G8">
+        <v>10</v>
+      </c>
+      <c r="H8">
+        <v>1.4</v>
+      </c>
+      <c r="I8">
+        <v>60</v>
+      </c>
+      <c r="J8">
+        <v>300</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>-21235</v>
+      </c>
+      <c r="M8">
+        <v>-11180</v>
+      </c>
+      <c r="N8">
+        <v>12303</v>
+      </c>
+      <c r="O8">
+        <v>-10055</v>
+      </c>
+      <c r="P8">
+        <v>-589</v>
+      </c>
+      <c r="Q8">
+        <v>1990</v>
+      </c>
+      <c r="R8">
+        <v>-0.8172803381289117</v>
+      </c>
+      <c r="S8">
+        <v>102.6305182018198</v>
+      </c>
+      <c r="T8">
+        <v>-15</v>
+      </c>
+      <c r="U8">
+        <v>0.2198650735592945</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21">
+      <c r="A9" s="1">
+        <v>1</v>
+      </c>
+      <c r="B9">
+        <v>5</v>
+      </c>
+      <c r="C9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>2017</v>
+      </c>
+      <c r="F9">
+        <v>2024</v>
+      </c>
+      <c r="G9">
+        <v>75</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9">
+        <v>65</v>
+      </c>
+      <c r="J9">
+        <v>400</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>-22297</v>
+      </c>
+      <c r="M9">
+        <v>-12883</v>
+      </c>
+      <c r="N9">
+        <v>11529</v>
+      </c>
+      <c r="O9">
+        <v>-9414</v>
+      </c>
+      <c r="P9">
+        <v>-561</v>
+      </c>
+      <c r="Q9">
+        <v>1990</v>
+      </c>
+      <c r="R9">
+        <v>-0.8165495706479313</v>
+      </c>
+      <c r="S9">
+        <v>104.491414993282</v>
+      </c>
+      <c r="T9">
+        <v>-15</v>
+      </c>
+      <c r="U9">
+        <v>0.2184057593893659</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>14</v>
+      </c>
+      <c r="C10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10">
+        <v>2017</v>
+      </c>
+      <c r="F10">
+        <v>2024</v>
+      </c>
+      <c r="G10">
+        <v>95</v>
+      </c>
+      <c r="H10">
+        <v>1.8</v>
+      </c>
+      <c r="I10">
+        <v>65</v>
+      </c>
+      <c r="J10">
+        <v>400</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>-22523</v>
+      </c>
+      <c r="M10">
+        <v>-11637</v>
+      </c>
+      <c r="N10">
+        <v>3277</v>
+      </c>
+      <c r="O10">
+        <v>-10886</v>
+      </c>
+      <c r="P10">
+        <v>-748</v>
+      </c>
+      <c r="Q10">
+        <v>1725</v>
+      </c>
+      <c r="R10">
+        <v>-3.321940799511748</v>
+      </c>
+      <c r="S10">
+        <v>186.5067641417614</v>
+      </c>
+      <c r="T10">
+        <v>-26</v>
+      </c>
+      <c r="U10">
+        <v>0.3399450717119317</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21">
+      <c r="A11" s="1">
+        <v>4</v>
+      </c>
+      <c r="B11">
+        <v>8</v>
+      </c>
+      <c r="C11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>2017</v>
+      </c>
+      <c r="F11">
+        <v>2024</v>
+      </c>
+      <c r="G11">
+        <v>65</v>
+      </c>
+      <c r="H11">
+        <v>2.2</v>
+      </c>
+      <c r="I11">
+        <v>40</v>
+      </c>
+      <c r="J11">
+        <v>200</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>-26148</v>
+      </c>
+      <c r="M11">
+        <v>-13768</v>
+      </c>
+      <c r="N11">
+        <v>4422</v>
+      </c>
+      <c r="O11">
+        <v>-12380</v>
+      </c>
+      <c r="P11">
+        <v>-1075</v>
+      </c>
+      <c r="Q11">
+        <v>1733</v>
+      </c>
+      <c r="R11">
+        <v>-2.799638172772501</v>
+      </c>
+      <c r="S11">
+        <v>172.4383177361088</v>
+      </c>
+      <c r="T11">
+        <v>-29.5</v>
+      </c>
+      <c r="U11">
+        <v>0.3403437358661239</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21">
+      <c r="A12" s="1">
+        <v>5</v>
+      </c>
+      <c r="B12">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12">
+        <v>2017</v>
+      </c>
+      <c r="F12">
+        <v>2024</v>
+      </c>
+      <c r="G12">
+        <v>60</v>
+      </c>
+      <c r="H12">
+        <v>1.6</v>
+      </c>
+      <c r="I12">
+        <v>100</v>
+      </c>
+      <c r="J12">
+        <v>300</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>-27247</v>
+      </c>
+      <c r="M12">
+        <v>-14616</v>
+      </c>
+      <c r="N12">
+        <v>2623</v>
+      </c>
+      <c r="O12">
+        <v>-12631</v>
+      </c>
+      <c r="P12">
+        <v>-748</v>
+      </c>
+      <c r="Q12">
+        <v>1984</v>
+      </c>
+      <c r="R12">
+        <v>-4.81547845977888</v>
+      </c>
+      <c r="S12">
+        <v>198.0108503860242</v>
+      </c>
+      <c r="T12">
+        <v>-29</v>
+      </c>
+      <c r="U12">
+        <v>0.3175752954632101</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21">
+      <c r="A13" s="1">
+        <v>3</v>
+      </c>
+      <c r="B13">
+        <v>7</v>
+      </c>
+      <c r="C13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13">
+        <v>2017</v>
+      </c>
+      <c r="F13">
+        <v>2024</v>
+      </c>
+      <c r="G13">
         <v>50</v>
       </c>
-      <c r="H8">
+      <c r="H13">
         <v>3.8</v>
       </c>
-      <c r="I8">
+      <c r="I13">
         <v>65</v>
       </c>
-      <c r="J8">
+      <c r="J13">
         <v>150</v>
       </c>
-      <c r="K8">
+      <c r="K13">
         <v>2</v>
       </c>
-      <c r="L8">
+      <c r="L13">
         <v>-29473</v>
       </c>
-      <c r="M8">
+      <c r="M13">
         <v>-17088</v>
       </c>
-      <c r="N8">
+      <c r="N13">
         <v>4845</v>
       </c>
-      <c r="O8">
+      <c r="O13">
         <v>-12385</v>
       </c>
-      <c r="P8">
+      <c r="P13">
         <v>-1146</v>
       </c>
-      <c r="Q8">
+      <c r="Q13">
         <v>1894</v>
       </c>
-      <c r="R8">
+      <c r="R13">
         <v>-2.5562435500516</v>
       </c>
-      <c r="S8">
+      <c r="S13">
         <v>165.7783181185999</v>
       </c>
-      <c r="T8">
+      <c r="T13">
         <v>-30</v>
       </c>
-      <c r="U8">
+      <c r="U13">
         <v>0.2732714138286894</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21">
+      <c r="A14" s="1">
+        <v>7</v>
+      </c>
+      <c r="B14">
+        <v>12</v>
+      </c>
+      <c r="C14" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14">
+        <v>2017</v>
+      </c>
+      <c r="F14">
+        <v>2024</v>
+      </c>
+      <c r="G14">
+        <v>20</v>
+      </c>
+      <c r="H14">
+        <v>3.600000000000001</v>
+      </c>
+      <c r="I14">
+        <v>75</v>
+      </c>
+      <c r="J14">
+        <v>50</v>
+      </c>
+      <c r="K14">
+        <v>4</v>
+      </c>
+      <c r="L14">
+        <v>-79755</v>
+      </c>
+      <c r="M14">
+        <v>-40094</v>
+      </c>
+      <c r="N14">
+        <v>2527</v>
+      </c>
+      <c r="O14">
+        <v>-39661</v>
+      </c>
+      <c r="P14">
+        <v>-1195</v>
+      </c>
+      <c r="Q14">
+        <v>1558</v>
+      </c>
+      <c r="R14">
+        <v>-15.69489513256826</v>
+      </c>
+      <c r="S14">
+        <v>154.3080573360432</v>
+      </c>
+      <c r="T14">
+        <v>-57</v>
+      </c>
+      <c r="U14">
+        <v>0.1891571032845271</v>
       </c>
     </row>
   </sheetData>
